--- a/Kiki/Kiln/2 Architecture/Major component BOM.xlsx
+++ b/Kiki/Kiln/2 Architecture/Major component BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Feature List</t>
   </si>
@@ -47,16 +47,31 @@
     <t>http://www.digikey.com/product-detail/en/adafruit-industries-llc/812/1528-1510-ND/5774236</t>
   </si>
   <si>
+    <t>http://www.jameco.com/z/KW4-561C2N-Displays-Segmented-Panel-4DIGIT-32LED-Green-12-Pin-DIP-Tape-and-Reel_335194.html</t>
+  </si>
+  <si>
     <t>Indicator light (red)</t>
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/dialight/5590102001F/350-2781-ND/2430866</t>
   </si>
   <si>
+    <t>http://www.jameco.com/z/R9-71N-05-120V-RED-R-Lamp-Panel-Red-Neon-120VoltSolder-Terminals-W-Bulb_215803.html</t>
+  </si>
+  <si>
     <t>Indicator light (green)</t>
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/dialight/5590202001F/350-2785-ND/2430873</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/R9-71N-05-120V-GREEN-R-Lamp-Panel-Green-Neon-120-Volt-Solder-Terminals-with-Bulb_215830.html</t>
+  </si>
+  <si>
+    <t>Optocoupler Triac</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/MOC3063M--Major-Brands-Optocoupler-Triac-AC-Output-1-Channel-600VDRM-6-Pin-PDIP_133874.html</t>
   </si>
   <si>
     <t>Start switch</t>
@@ -156,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,8 +213,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +238,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
     <fill>
@@ -266,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,7 +323,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,27 +343,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,7 +363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -473,275 +493,287 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E2" s="6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <f aca="false">C2*D2</f>
-        <v>5.95</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>2.95</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">C3*D3</f>
+        <v>3.9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">C4*D4</f>
+        <v>1.95</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">C5*D5</f>
+        <v>2.07</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="n">
+        <f aca="false">C6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="n">
+        <f aca="false">C7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E3" s="11" t="n">
-        <f aca="false">C3*D3</f>
-        <v>3.7</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="n">
+      <c r="D8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <f aca="false">C8*D8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <f aca="false">C9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="n">
+        <f aca="false">C10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <f aca="false">C4*D4</f>
-        <v>1.85</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="n">
-        <f aca="false">C5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="n">
-        <f aca="false">C6*D6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <f aca="false">C7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="D11" s="11" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <f aca="false">C11*D11</f>
+        <v>7.95</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <f aca="false">C8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="n">
-        <f aca="false">C9*D9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" s="14" customFormat="true" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="n">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="n">
+        <f aca="false">C12*D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="16" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <f aca="false">C10*D10</f>
-        <v>7.95</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="n">
-        <f aca="false">C11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="n">
+      <c r="D13" s="6" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <f aca="false">C12*D12</f>
-        <v>17.5</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>10.64</v>
       </c>
       <c r="E13" s="6" t="n">
         <f aca="false">C13*D13</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>10.64</v>
+      </c>
       <c r="E14" s="6" t="n">
         <f aca="false">C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="n">
+    <row r="15" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="n">
         <f aca="false">C15*D15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="7" t="n">
         <f aca="false">C16*D16</f>
         <v>0</v>
       </c>
@@ -749,146 +781,161 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" s="14" customFormat="true" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="n">
         <f aca="false">C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="n">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="n">
         <f aca="false">C18*D18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" s="14" customFormat="true" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="n">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="n">
         <f aca="false">C19*D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" s="14" customFormat="true" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="n">
+      <c r="F19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="n">
         <f aca="false">C20*D20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="n">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="n">
         <f aca="false">C21*D21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="n">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="n">
         <f aca="false">C22*D22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" s="14" customFormat="true" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="n">
+        <f aca="false">C23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="n">
+        <f aca="false">C24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="n">
-        <f aca="false">C23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" s="14" customFormat="true" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="n">
-        <f aca="false">C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="0" t="n">
-        <f aca="false">SUM(E2:E24)</f>
-        <v>36.95</v>
+      <c r="C25" s="17"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="n">
+        <f aca="false">C25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
+        <f aca="false">SUM(E2:E25)</f>
+        <v>36.32</v>
       </c>
     </row>
   </sheetData>
